--- a/BGS MASTER LIST.xlsx
+++ b/BGS MASTER LIST.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix Pivot" sheetId="22" r:id="rId1"/>
@@ -33,7 +33,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="14" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -12468,7 +12468,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:CC90" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField numFmtId="14" showAll="0"/>
@@ -13119,7 +13119,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D103" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField numFmtId="14" showAll="0"/>
@@ -24876,7 +24876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CE64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
@@ -42365,12 +42365,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:M975"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D650" sqref="D650"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42452,7 +42451,7 @@
       </c>
       <c r="M2" s="17"/>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>42543</v>
       </c>
@@ -42485,7 +42484,7 @@
       </c>
       <c r="M3" s="17"/>
     </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>42543</v>
       </c>
@@ -42517,7 +42516,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>42543</v>
       </c>
@@ -42549,7 +42548,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>42543</v>
       </c>
@@ -42581,7 +42580,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>42543</v>
       </c>
@@ -42613,7 +42612,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>42543</v>
       </c>
@@ -42645,7 +42644,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>42543</v>
       </c>
@@ -42677,7 +42676,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>42543</v>
       </c>
@@ -42709,7 +42708,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>42543</v>
       </c>
@@ -42741,7 +42740,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>42543</v>
       </c>
@@ -42773,7 +42772,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>42543</v>
       </c>
@@ -42805,7 +42804,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>42543</v>
       </c>
@@ -42837,7 +42836,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>42543</v>
       </c>
@@ -42869,7 +42868,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>42543</v>
       </c>
@@ -42901,7 +42900,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>42543</v>
       </c>
@@ -42933,7 +42932,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>42543</v>
       </c>
@@ -42965,7 +42964,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>42543</v>
       </c>
@@ -43029,7 +43028,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>42543</v>
       </c>
@@ -43061,7 +43060,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>42543</v>
       </c>
@@ -43093,7 +43092,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>42543</v>
       </c>
@@ -43125,7 +43124,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>42543</v>
       </c>
@@ -43157,7 +43156,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>42543</v>
       </c>
@@ -43189,7 +43188,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>42543</v>
       </c>
@@ -43221,7 +43220,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>42543</v>
       </c>
@@ -43285,7 +43284,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>42543</v>
       </c>
@@ -43317,7 +43316,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>42543</v>
       </c>
@@ -43349,7 +43348,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>42543</v>
       </c>
@@ -43381,7 +43380,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>42543</v>
       </c>
@@ -43413,7 +43412,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>42543</v>
       </c>
@@ -43445,7 +43444,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>42543</v>
       </c>
@@ -43477,7 +43476,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>42543</v>
       </c>
@@ -43509,7 +43508,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>42543</v>
       </c>
@@ -43541,7 +43540,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>42543</v>
       </c>
@@ -43573,7 +43572,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>42543</v>
       </c>
@@ -43605,7 +43604,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>42543</v>
       </c>
@@ -43637,7 +43636,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>42543</v>
       </c>
@@ -43669,7 +43668,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>42543</v>
       </c>
@@ -43733,7 +43732,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42543</v>
       </c>
@@ -43765,7 +43764,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42543</v>
       </c>
@@ -43797,7 +43796,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>42543</v>
       </c>
@@ -43829,7 +43828,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>42543</v>
       </c>
@@ -43861,7 +43860,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>42543</v>
       </c>
@@ -43893,7 +43892,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>42543</v>
       </c>
@@ -43925,7 +43924,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>42543</v>
       </c>
@@ -43957,7 +43956,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>42543</v>
       </c>
@@ -43989,7 +43988,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>42543</v>
       </c>
@@ -44021,7 +44020,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>42543</v>
       </c>
@@ -44053,7 +44052,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>42543</v>
       </c>
@@ -44085,7 +44084,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>42543</v>
       </c>
@@ -44117,7 +44116,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>42543</v>
       </c>
@@ -44149,7 +44148,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>42543</v>
       </c>
@@ -44181,7 +44180,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>42543</v>
       </c>
@@ -44213,7 +44212,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>42543</v>
       </c>
@@ -44277,7 +44276,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>42543</v>
       </c>
@@ -44309,7 +44308,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>42543</v>
       </c>
@@ -44341,7 +44340,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>42543</v>
       </c>
@@ -44373,7 +44372,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>42543</v>
       </c>
@@ -44405,7 +44404,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>42543</v>
       </c>
@@ -44437,7 +44436,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>42543</v>
       </c>
@@ -44469,7 +44468,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>42543</v>
       </c>
@@ -44501,7 +44500,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>42543</v>
       </c>
@@ -44533,7 +44532,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>42543</v>
       </c>
@@ -44565,7 +44564,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>42543</v>
       </c>
@@ -44597,7 +44596,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>42543</v>
       </c>
@@ -44629,7 +44628,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>42543</v>
       </c>
@@ -44661,7 +44660,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>42543</v>
       </c>
@@ -44693,7 +44692,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>42543</v>
       </c>
@@ -44725,7 +44724,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>42543</v>
       </c>
@@ -44757,7 +44756,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>42543</v>
       </c>
@@ -44789,7 +44788,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>42597</v>
       </c>
@@ -44821,7 +44820,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>42597</v>
       </c>
@@ -44853,7 +44852,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>42597</v>
       </c>
@@ -44885,7 +44884,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>42597</v>
       </c>
@@ -44917,7 +44916,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>42597</v>
       </c>
@@ -44949,7 +44948,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>42597</v>
       </c>
@@ -44981,7 +44980,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>42597</v>
       </c>
@@ -45013,7 +45012,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>42597</v>
       </c>
@@ -45077,7 +45076,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>42597</v>
       </c>
@@ -45109,7 +45108,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>42597</v>
       </c>
@@ -45141,7 +45140,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>42597</v>
       </c>
@@ -45173,7 +45172,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>42597</v>
       </c>
@@ -45205,7 +45204,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>42597</v>
       </c>
@@ -45237,7 +45236,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>42597</v>
       </c>
@@ -45269,7 +45268,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>42597</v>
       </c>
@@ -45301,7 +45300,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>42597</v>
       </c>
@@ -45333,7 +45332,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>42597</v>
       </c>
@@ -45365,7 +45364,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>42597</v>
       </c>
@@ -45397,7 +45396,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>42597</v>
       </c>
@@ -45429,7 +45428,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>42597</v>
       </c>
@@ -45461,7 +45460,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>42597</v>
       </c>
@@ -45493,7 +45492,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>42597</v>
       </c>
@@ -45525,7 +45524,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>42597</v>
       </c>
@@ -45557,7 +45556,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>42597</v>
       </c>
@@ -45589,7 +45588,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>42597</v>
       </c>
@@ -45621,7 +45620,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>42597</v>
       </c>
@@ -45653,7 +45652,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>42597</v>
       </c>
@@ -45717,7 +45716,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>42597</v>
       </c>
@@ -45749,7 +45748,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>42597</v>
       </c>
@@ -45781,7 +45780,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>42597</v>
       </c>
@@ -45813,7 +45812,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>42597</v>
       </c>
@@ -45845,7 +45844,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>42597</v>
       </c>
@@ -45877,7 +45876,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>42597</v>
       </c>
@@ -45909,7 +45908,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>42597</v>
       </c>
@@ -45941,7 +45940,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>42597</v>
       </c>
@@ -45973,7 +45972,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>42597</v>
       </c>
@@ -46005,7 +46004,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>42597</v>
       </c>
@@ -46037,7 +46036,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>42597</v>
       </c>
@@ -46069,7 +46068,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>42597</v>
       </c>
@@ -46101,7 +46100,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>42597</v>
       </c>
@@ -46133,7 +46132,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>42597</v>
       </c>
@@ -46165,7 +46164,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>42597</v>
       </c>
@@ -46197,7 +46196,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>42597</v>
       </c>
@@ -46229,7 +46228,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>42597</v>
       </c>
@@ -46261,7 +46260,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>42597</v>
       </c>
@@ -46293,7 +46292,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>42597</v>
       </c>
@@ -46325,7 +46324,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>42597</v>
       </c>
@@ -46357,7 +46356,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>42597</v>
       </c>
@@ -46453,7 +46452,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>42598</v>
       </c>
@@ -46485,7 +46484,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>42598</v>
       </c>
@@ -46517,7 +46516,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>42598</v>
       </c>
@@ -46549,7 +46548,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>42598</v>
       </c>
@@ -46581,7 +46580,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>42598</v>
       </c>
@@ -46613,7 +46612,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>42598</v>
       </c>
@@ -46645,7 +46644,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>42598</v>
       </c>
@@ -46677,7 +46676,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>42598</v>
       </c>
@@ -46709,7 +46708,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>42598</v>
       </c>
@@ -46741,7 +46740,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>42598</v>
       </c>
@@ -46773,7 +46772,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>42598</v>
       </c>
@@ -46805,7 +46804,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>42598</v>
       </c>
@@ -46837,7 +46836,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>42598</v>
       </c>
@@ -46901,7 +46900,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>42598</v>
       </c>
@@ -46933,7 +46932,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>42598</v>
       </c>
@@ -46965,7 +46964,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>42598</v>
       </c>
@@ -46997,7 +46996,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>42598</v>
       </c>
@@ -47029,7 +47028,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>42598</v>
       </c>
@@ -47061,7 +47060,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>42598</v>
       </c>
@@ -47093,7 +47092,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>42598</v>
       </c>
@@ -47125,7 +47124,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>42598</v>
       </c>
@@ -47157,7 +47156,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>42598</v>
       </c>
@@ -47189,7 +47188,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>42598</v>
       </c>
@@ -47253,7 +47252,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>42598</v>
       </c>
@@ -47285,7 +47284,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>42598</v>
       </c>
@@ -47317,7 +47316,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>42598</v>
       </c>
@@ -47349,7 +47348,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>42598</v>
       </c>
@@ -47381,7 +47380,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>42598</v>
       </c>
@@ -47413,7 +47412,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>42598</v>
       </c>
@@ -47445,7 +47444,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>42598</v>
       </c>
@@ -47477,7 +47476,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>42598</v>
       </c>
@@ -47509,7 +47508,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>42598</v>
       </c>
@@ -47541,7 +47540,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>42598</v>
       </c>
@@ -47573,7 +47572,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>42598</v>
       </c>
@@ -47637,7 +47636,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>42598</v>
       </c>
@@ -47669,7 +47668,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>42598</v>
       </c>
@@ -47701,7 +47700,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>42598</v>
       </c>
@@ -47733,7 +47732,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>42598</v>
       </c>
@@ -47765,7 +47764,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
         <v>42598</v>
       </c>
@@ -47797,7 +47796,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
         <v>42598</v>
       </c>
@@ -47829,7 +47828,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
         <v>42598</v>
       </c>
@@ -47861,7 +47860,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
         <v>42598</v>
       </c>
@@ -47893,7 +47892,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>42598</v>
       </c>
@@ -47925,7 +47924,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>42598</v>
       </c>
@@ -47957,7 +47956,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <v>42598</v>
       </c>
@@ -47989,7 +47988,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>42598</v>
       </c>
@@ -48021,7 +48020,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <v>42598</v>
       </c>
@@ -48053,7 +48052,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
         <v>42598</v>
       </c>
@@ -48085,7 +48084,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
         <v>42598</v>
       </c>
@@ -48149,7 +48148,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
         <v>42598</v>
       </c>
@@ -48181,7 +48180,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
         <v>42598</v>
       </c>
@@ -48213,7 +48212,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
         <v>42598</v>
       </c>
@@ -48245,7 +48244,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
         <v>42598</v>
       </c>
@@ -48277,7 +48276,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
         <v>42598</v>
       </c>
@@ -48309,7 +48308,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
         <v>42598</v>
       </c>
@@ -48341,7 +48340,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
         <v>42598</v>
       </c>
@@ -48373,7 +48372,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
         <v>42598</v>
       </c>
@@ -48405,7 +48404,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
         <v>42598</v>
       </c>
@@ -48437,7 +48436,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
         <v>42598</v>
       </c>
@@ -48469,7 +48468,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
         <v>42598</v>
       </c>
@@ -48501,7 +48500,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
         <v>42598</v>
       </c>
@@ -48565,7 +48564,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>42597</v>
       </c>
@@ -48597,7 +48596,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>42597</v>
       </c>
@@ -48629,7 +48628,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>42597</v>
       </c>
@@ -48661,7 +48660,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>42597</v>
       </c>
@@ -48693,7 +48692,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>42597</v>
       </c>
@@ -48725,7 +48724,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>42597</v>
       </c>
@@ -48757,7 +48756,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>42597</v>
       </c>
@@ -48789,7 +48788,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>42597</v>
       </c>
@@ -48821,7 +48820,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>42597</v>
       </c>
@@ -48853,7 +48852,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>42597</v>
       </c>
@@ -48885,7 +48884,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>42597</v>
       </c>
@@ -48917,7 +48916,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>42597</v>
       </c>
@@ -48949,7 +48948,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>42597</v>
       </c>
@@ -48981,7 +48980,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>42597</v>
       </c>
@@ -49013,7 +49012,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>42597</v>
       </c>
@@ -49045,7 +49044,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>42597</v>
       </c>
@@ -49109,7 +49108,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>42597</v>
       </c>
@@ -49141,7 +49140,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>42597</v>
       </c>
@@ -49173,7 +49172,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>42597</v>
       </c>
@@ -49205,7 +49204,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>42597</v>
       </c>
@@ -49237,7 +49236,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>42597</v>
       </c>
@@ -49269,7 +49268,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>42597</v>
       </c>
@@ -49301,7 +49300,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>42597</v>
       </c>
@@ -49333,7 +49332,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>42597</v>
       </c>
@@ -49365,7 +49364,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>42597</v>
       </c>
@@ -49397,7 +49396,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>42597</v>
       </c>
@@ -49429,7 +49428,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>42597</v>
       </c>
@@ -49493,7 +49492,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>42597</v>
       </c>
@@ -49525,7 +49524,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>42597</v>
       </c>
@@ -49557,7 +49556,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>42597</v>
       </c>
@@ -49589,7 +49588,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>42597</v>
       </c>
@@ -49621,7 +49620,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>42597</v>
       </c>
@@ -49653,7 +49652,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>42597</v>
       </c>
@@ -49685,7 +49684,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>42597</v>
       </c>
@@ -49717,7 +49716,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>42597</v>
       </c>
@@ -49749,7 +49748,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>42597</v>
       </c>
@@ -49781,7 +49780,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>42597</v>
       </c>
@@ -49813,7 +49812,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>42597</v>
       </c>
@@ -49877,7 +49876,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>42597</v>
       </c>
@@ -49909,7 +49908,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>42597</v>
       </c>
@@ -49941,7 +49940,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>42597</v>
       </c>
@@ -49973,7 +49972,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>42597</v>
       </c>
@@ -50005,7 +50004,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>42597</v>
       </c>
@@ -50069,7 +50068,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>42597</v>
       </c>
@@ -50101,7 +50100,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>42597</v>
       </c>
@@ -50133,7 +50132,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>42597</v>
       </c>
@@ -50165,7 +50164,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>42597</v>
       </c>
@@ -50197,7 +50196,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>42597</v>
       </c>
@@ -50229,7 +50228,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>42597</v>
       </c>
@@ -50261,7 +50260,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>42597</v>
       </c>
@@ -50325,7 +50324,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>42604</v>
       </c>
@@ -50357,7 +50356,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>42604</v>
       </c>
@@ -50389,7 +50388,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>42604</v>
       </c>
@@ -50421,7 +50420,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>42604</v>
       </c>
@@ -50453,7 +50452,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>42604</v>
       </c>
@@ -50485,7 +50484,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>42604</v>
       </c>
@@ -50517,7 +50516,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>42604</v>
       </c>
@@ -50549,7 +50548,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>42604</v>
       </c>
@@ -50581,7 +50580,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>42604</v>
       </c>
@@ -50613,7 +50612,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>42604</v>
       </c>
@@ -50645,7 +50644,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>42597</v>
       </c>
@@ -50709,7 +50708,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>42597</v>
       </c>
@@ -50741,7 +50740,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>42597</v>
       </c>
@@ -50773,7 +50772,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>42597</v>
       </c>
@@ -50805,7 +50804,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>42597</v>
       </c>
@@ -50837,7 +50836,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>42597</v>
       </c>
@@ -50869,7 +50868,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>42597</v>
       </c>
@@ -50901,7 +50900,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>42597</v>
       </c>
@@ -50933,7 +50932,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>42597</v>
       </c>
@@ -50965,7 +50964,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>42597</v>
       </c>
@@ -50997,7 +50996,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>42597</v>
       </c>
@@ -51029,7 +51028,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>42597</v>
       </c>
@@ -51061,7 +51060,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>42597</v>
       </c>
@@ -51093,7 +51092,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>42597</v>
       </c>
@@ -51125,7 +51124,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>42597</v>
       </c>
@@ -51157,7 +51156,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>42597</v>
       </c>
@@ -51189,7 +51188,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>42597</v>
       </c>
@@ -51221,7 +51220,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>42597</v>
       </c>
@@ -51253,7 +51252,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>42597</v>
       </c>
@@ -51285,7 +51284,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>42597</v>
       </c>
@@ -51317,7 +51316,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>42597</v>
       </c>
@@ -51349,7 +51348,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>42597</v>
       </c>
@@ -51381,7 +51380,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>42597</v>
       </c>
@@ -51413,7 +51412,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>42597</v>
       </c>
@@ -51445,7 +51444,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>42597</v>
       </c>
@@ -51509,7 +51508,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>42597</v>
       </c>
@@ -51541,7 +51540,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>42597</v>
       </c>
@@ -51573,7 +51572,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>42597</v>
       </c>
@@ -51605,7 +51604,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>42597</v>
       </c>
@@ -51637,7 +51636,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>42597</v>
       </c>
@@ -51669,7 +51668,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>42597</v>
       </c>
@@ -51701,7 +51700,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>42597</v>
       </c>
@@ -51733,7 +51732,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>42597</v>
       </c>
@@ -51765,7 +51764,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>42597</v>
       </c>
@@ -51797,7 +51796,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>42597</v>
       </c>
@@ -51829,7 +51828,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>42597</v>
       </c>
@@ -51861,7 +51860,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>42597</v>
       </c>
@@ -51893,7 +51892,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>42597</v>
       </c>
@@ -51925,7 +51924,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>42597</v>
       </c>
@@ -51957,7 +51956,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>42597</v>
       </c>
@@ -51989,7 +51988,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>42597</v>
       </c>
@@ -52021,7 +52020,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>42597</v>
       </c>
@@ -52053,7 +52052,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>42597</v>
       </c>
@@ -52085,7 +52084,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>42597</v>
       </c>
@@ -52117,7 +52116,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>42597</v>
       </c>
@@ -52149,7 +52148,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>42597</v>
       </c>
@@ -52181,7 +52180,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>42666</v>
       </c>
@@ -52213,7 +52212,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>42666</v>
       </c>
@@ -52245,7 +52244,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>42666</v>
       </c>
@@ -52309,7 +52308,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>42666</v>
       </c>
@@ -52341,7 +52340,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>42666</v>
       </c>
@@ -52373,7 +52372,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>42666</v>
       </c>
@@ -52405,7 +52404,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>42666</v>
       </c>
@@ -52437,7 +52436,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>42666</v>
       </c>
@@ -52469,7 +52468,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>42666</v>
       </c>
@@ -52501,7 +52500,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>42666</v>
       </c>
@@ -52533,7 +52532,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>42666</v>
       </c>
@@ -52565,7 +52564,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>42666</v>
       </c>
@@ -52629,7 +52628,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>42666</v>
       </c>
@@ -52661,7 +52660,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>42666</v>
       </c>
@@ -52693,7 +52692,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>42666</v>
       </c>
@@ -52725,7 +52724,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>42666</v>
       </c>
@@ -52757,7 +52756,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>42666</v>
       </c>
@@ -52789,7 +52788,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>42666</v>
       </c>
@@ -52821,7 +52820,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>42666</v>
       </c>
@@ -52885,7 +52884,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>42666</v>
       </c>
@@ -52917,7 +52916,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>42666</v>
       </c>
@@ -52949,7 +52948,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>42666</v>
       </c>
@@ -52981,7 +52980,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>42666</v>
       </c>
@@ -53013,7 +53012,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>42666</v>
       </c>
@@ -53045,7 +53044,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>42666</v>
       </c>
@@ -53077,7 +53076,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>42666</v>
       </c>
@@ -53109,7 +53108,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>42666</v>
       </c>
@@ -53141,7 +53140,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>42666</v>
       </c>
@@ -53173,7 +53172,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>42666</v>
       </c>
@@ -53205,7 +53204,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>42666</v>
       </c>
@@ -53237,7 +53236,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>42666</v>
       </c>
@@ -53269,7 +53268,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>42666</v>
       </c>
@@ -53301,7 +53300,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>42666</v>
       </c>
@@ -53333,7 +53332,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>42666</v>
       </c>
@@ -53365,7 +53364,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>42666</v>
       </c>
@@ -53397,7 +53396,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>42666</v>
       </c>
@@ -53461,7 +53460,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>42666</v>
       </c>
@@ -53493,7 +53492,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>42666</v>
       </c>
@@ -53525,7 +53524,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>42666</v>
       </c>
@@ -53557,7 +53556,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>42666</v>
       </c>
@@ -53589,7 +53588,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>42666</v>
       </c>
@@ -53621,7 +53620,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>42666</v>
       </c>
@@ -53653,7 +53652,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>42666</v>
       </c>
@@ -53685,7 +53684,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>42666</v>
       </c>
@@ -53749,7 +53748,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>42666</v>
       </c>
@@ -53781,7 +53780,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>42666</v>
       </c>
@@ -53813,7 +53812,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>42666</v>
       </c>
@@ -53845,7 +53844,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>42666</v>
       </c>
@@ -53877,7 +53876,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>42666</v>
       </c>
@@ -53909,7 +53908,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>42666</v>
       </c>
@@ -53973,7 +53972,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363" s="4">
         <v>42671</v>
       </c>
@@ -54005,7 +54004,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364" s="4">
         <v>42671</v>
       </c>
@@ -54037,7 +54036,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365" s="4">
         <v>42671</v>
       </c>
@@ -54069,7 +54068,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366" s="4">
         <v>42671</v>
       </c>
@@ -54133,7 +54132,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368" s="4">
         <v>42671</v>
       </c>
@@ -54165,7 +54164,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369" s="4">
         <v>42671</v>
       </c>
@@ -54197,7 +54196,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370" s="4">
         <v>42671</v>
       </c>
@@ -54261,7 +54260,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372" s="4">
         <v>42671</v>
       </c>
@@ -54293,7 +54292,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373" s="4">
         <v>42671</v>
       </c>
@@ -54357,7 +54356,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375" s="4">
         <v>42671</v>
       </c>
@@ -54389,7 +54388,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376" s="4">
         <v>42671</v>
       </c>
@@ -54421,7 +54420,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377" s="4">
         <v>42671</v>
       </c>
@@ -54453,7 +54452,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378" s="4">
         <v>42671</v>
       </c>
@@ -54517,7 +54516,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380" s="4">
         <v>42671</v>
       </c>
@@ -54549,7 +54548,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381" s="4">
         <v>42671</v>
       </c>
@@ -54613,7 +54612,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>42669</v>
       </c>
@@ -54677,7 +54676,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>42669</v>
       </c>
@@ -54741,7 +54740,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>42669</v>
       </c>
@@ -54773,7 +54772,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>42669</v>
       </c>
@@ -54837,7 +54836,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>42669</v>
       </c>
@@ -54869,7 +54868,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>42669</v>
       </c>
@@ -54933,7 +54932,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>42669</v>
       </c>
@@ -54965,7 +54964,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>42669</v>
       </c>
@@ -54997,7 +54996,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>42669</v>
       </c>
@@ -55029,7 +55028,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>42669</v>
       </c>
@@ -55061,7 +55060,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>42669</v>
       </c>
@@ -55093,7 +55092,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>42669</v>
       </c>
@@ -55125,7 +55124,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>42666</v>
       </c>
@@ -55157,7 +55156,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>42666</v>
       </c>
@@ -55189,7 +55188,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>42666</v>
       </c>
@@ -55221,7 +55220,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>42666</v>
       </c>
@@ -55253,7 +55252,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>42666</v>
       </c>
@@ -55285,7 +55284,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>42666</v>
       </c>
@@ -55317,7 +55316,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>42666</v>
       </c>
@@ -55381,7 +55380,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>42666</v>
       </c>
@@ -55413,7 +55412,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>42666</v>
       </c>
@@ -55445,7 +55444,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>42666</v>
       </c>
@@ -55477,7 +55476,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>42666</v>
       </c>
@@ -55509,7 +55508,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>42666</v>
       </c>
@@ -55541,7 +55540,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>42666</v>
       </c>
@@ -55573,7 +55572,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>42666</v>
       </c>
@@ -55605,7 +55604,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>42666</v>
       </c>
@@ -55637,7 +55636,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>42666</v>
       </c>
@@ -55669,7 +55668,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>42666</v>
       </c>
@@ -55701,7 +55700,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>42666</v>
       </c>
@@ -55733,7 +55732,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>42666</v>
       </c>
@@ -55797,7 +55796,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>42666</v>
       </c>
@@ -55829,7 +55828,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>42666</v>
       </c>
@@ -55861,7 +55860,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>42666</v>
       </c>
@@ -55893,7 +55892,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>42666</v>
       </c>
@@ -55925,7 +55924,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>42666</v>
       </c>
@@ -55989,7 +55988,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>42666</v>
       </c>
@@ -56021,7 +56020,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>42666</v>
       </c>
@@ -56053,7 +56052,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>42666</v>
       </c>
@@ -56085,7 +56084,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>42666</v>
       </c>
@@ -56117,7 +56116,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>42666</v>
       </c>
@@ -56149,7 +56148,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>42666</v>
       </c>
@@ -56181,7 +56180,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>42666</v>
       </c>
@@ -56213,7 +56212,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>42666</v>
       </c>
@@ -56245,7 +56244,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>42666</v>
       </c>
@@ -56277,7 +56276,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>42666</v>
       </c>
@@ -56309,7 +56308,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>42666</v>
       </c>
@@ -56341,7 +56340,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>42666</v>
       </c>
@@ -56405,7 +56404,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>42666</v>
       </c>
@@ -56437,7 +56436,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>42666</v>
       </c>
@@ -56469,7 +56468,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>42666</v>
       </c>
@@ -56501,7 +56500,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>42666</v>
       </c>
@@ -56533,7 +56532,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>42666</v>
       </c>
@@ -56565,7 +56564,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>42666</v>
       </c>
@@ -56597,7 +56596,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>42666</v>
       </c>
@@ -56661,7 +56660,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>42666</v>
       </c>
@@ -56693,7 +56692,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>42666</v>
       </c>
@@ -56725,7 +56724,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>42666</v>
       </c>
@@ -56757,7 +56756,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>42666</v>
       </c>
@@ -56789,7 +56788,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>42666</v>
       </c>
@@ -56821,7 +56820,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="452" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>42666</v>
       </c>
@@ -56853,7 +56852,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>42666</v>
       </c>
@@ -56885,7 +56884,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="454" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>42666</v>
       </c>
@@ -56917,7 +56916,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>42666</v>
       </c>
@@ -56949,7 +56948,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>42666</v>
       </c>
@@ -56981,7 +56980,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>42666</v>
       </c>
@@ -57013,7 +57012,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>42666</v>
       </c>
@@ -57045,7 +57044,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>42666</v>
       </c>
@@ -57077,7 +57076,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>42666</v>
       </c>
@@ -57109,7 +57108,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>42666</v>
       </c>
@@ -57141,7 +57140,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>42666</v>
       </c>
@@ -57173,7 +57172,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>42666</v>
       </c>
@@ -57205,7 +57204,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>42666</v>
       </c>
@@ -57237,7 +57236,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>42877</v>
       </c>
@@ -57269,7 +57268,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>42877</v>
       </c>
@@ -57301,7 +57300,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>42877</v>
       </c>
@@ -57333,7 +57332,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="468" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>42877</v>
       </c>
@@ -57365,7 +57364,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>42877</v>
       </c>
@@ -57397,7 +57396,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="470" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>42877</v>
       </c>
@@ -57429,7 +57428,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="471" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>42877</v>
       </c>
@@ -57461,7 +57460,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="472" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>42877</v>
       </c>
@@ -57493,7 +57492,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>42877</v>
       </c>
@@ -57525,7 +57524,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="474" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>42877</v>
       </c>
@@ -57557,7 +57556,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="475" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>42877</v>
       </c>
@@ -57589,7 +57588,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="476" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>42877</v>
       </c>
@@ -57621,7 +57620,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="477" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>42877</v>
       </c>
@@ -57653,7 +57652,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>42877</v>
       </c>
@@ -57685,7 +57684,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="479" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>42877</v>
       </c>
@@ -57717,7 +57716,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="480" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>42877</v>
       </c>
@@ -57749,7 +57748,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>42877</v>
       </c>
@@ -57781,7 +57780,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="482" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>42877</v>
       </c>
@@ -57813,7 +57812,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="483" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>42877</v>
       </c>
@@ -57845,7 +57844,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="484" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>42877</v>
       </c>
@@ -57877,7 +57876,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="485" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>42877</v>
       </c>
@@ -57909,7 +57908,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="486" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>42877</v>
       </c>
@@ -57941,7 +57940,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="487" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>42877</v>
       </c>
@@ -57973,7 +57972,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="488" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>42877</v>
       </c>
@@ -58005,7 +58004,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="489" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>42877</v>
       </c>
@@ -58037,7 +58036,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="490" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>42877</v>
       </c>
@@ -58069,7 +58068,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="491" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>42877</v>
       </c>
@@ -58101,7 +58100,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="492" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>42877</v>
       </c>
@@ -58133,7 +58132,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="493" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>42877</v>
       </c>
@@ -58165,7 +58164,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="494" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>42877</v>
       </c>
@@ -58197,7 +58196,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="495" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>42877</v>
       </c>
@@ -58229,7 +58228,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="496" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>42877</v>
       </c>
@@ -58261,7 +58260,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="497" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>42877</v>
       </c>
@@ -58293,7 +58292,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>42877</v>
       </c>
@@ -58325,7 +58324,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="499" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>42877</v>
       </c>
@@ -58357,7 +58356,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="500" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>42877</v>
       </c>
@@ -58389,7 +58388,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>42877</v>
       </c>
@@ -58453,7 +58452,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A503" s="4">
         <v>42894</v>
       </c>
@@ -58485,7 +58484,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="504" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A504" s="4">
         <v>42894</v>
       </c>
@@ -58517,7 +58516,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A505" s="4">
         <v>42894</v>
       </c>
@@ -58549,7 +58548,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A506" s="4">
         <v>42894</v>
       </c>
@@ -58581,7 +58580,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="507" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A507" s="4">
         <v>42894</v>
       </c>
@@ -58613,7 +58612,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="508" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A508" s="4">
         <v>42894</v>
       </c>
@@ -58645,7 +58644,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="509" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A509" s="4">
         <v>42894</v>
       </c>
@@ -58677,7 +58676,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="510" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A510" s="4">
         <v>42894</v>
       </c>
@@ -58709,7 +58708,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="511" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A511" s="4">
         <v>42894</v>
       </c>
@@ -58773,7 +58772,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="513" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A513" s="4">
         <v>42894</v>
       </c>
@@ -58805,7 +58804,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="514" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A514" s="4">
         <v>42894</v>
       </c>
@@ -58837,7 +58836,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="515" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A515" s="4">
         <v>42894</v>
       </c>
@@ -58869,7 +58868,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="516" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A516" s="4">
         <v>42894</v>
       </c>
@@ -58901,7 +58900,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="517" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A517" s="4">
         <v>42894</v>
       </c>
@@ -58933,7 +58932,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="518" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A518" s="4">
         <v>42894</v>
       </c>
@@ -58965,7 +58964,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="519" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A519" s="4">
         <v>42894</v>
       </c>
@@ -58997,7 +58996,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="520" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A520" s="4">
         <v>42894</v>
       </c>
@@ -59029,7 +59028,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="521" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A521" s="4">
         <v>42894</v>
       </c>
@@ -59061,7 +59060,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="522" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A522" s="4">
         <v>42894</v>
       </c>
@@ -59093,7 +59092,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="523" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A523" s="4">
         <v>42894</v>
       </c>
@@ -59125,7 +59124,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="524" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A524" s="4">
         <v>42894</v>
       </c>
@@ -59157,7 +59156,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="525" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A525" s="4">
         <v>42894</v>
       </c>
@@ -59189,7 +59188,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="526" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A526" s="4">
         <v>42894</v>
       </c>
@@ -59221,7 +59220,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="527" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A527" s="4">
         <v>42894</v>
       </c>
@@ -59285,7 +59284,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="529" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A529" s="4">
         <v>42894</v>
       </c>
@@ -59317,7 +59316,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="530" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A530" s="4">
         <v>42894</v>
       </c>
@@ -59349,7 +59348,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="531" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A531" s="4">
         <v>42894</v>
       </c>
@@ -59381,7 +59380,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="532" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A532" s="4">
         <v>42894</v>
       </c>
@@ -59413,7 +59412,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="533" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A533" s="4">
         <v>42894</v>
       </c>
@@ -59445,7 +59444,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="534" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A534" s="4">
         <v>42894</v>
       </c>
@@ -59477,7 +59476,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="535" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A535" s="4">
         <v>42894</v>
       </c>
@@ -59509,7 +59508,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="536" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A536" s="4">
         <v>42894</v>
       </c>
@@ -59541,7 +59540,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="537" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A537" s="4">
         <v>42894</v>
       </c>
@@ -59573,7 +59572,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="538" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A538" s="4">
         <v>42894</v>
       </c>
@@ -59605,7 +59604,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="539" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A539" s="4">
         <v>42894</v>
       </c>
@@ -59637,7 +59636,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="540" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A540" s="4">
         <v>42894</v>
       </c>
@@ -59669,7 +59668,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="541" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A541" s="4">
         <v>42894</v>
       </c>
@@ -59701,7 +59700,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="542" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A542" s="4">
         <v>42894</v>
       </c>
@@ -59733,7 +59732,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="543" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A543" s="4">
         <v>42894</v>
       </c>
@@ -59765,7 +59764,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="544" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A544" s="4">
         <v>42894</v>
       </c>
@@ -59797,7 +59796,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="545" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A545" s="4">
         <v>42894</v>
       </c>
@@ -59829,7 +59828,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="546" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A546" s="4">
         <v>42894</v>
       </c>
@@ -59861,7 +59860,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="547" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A547" s="4">
         <v>42894</v>
       </c>
@@ -59925,7 +59924,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="549" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A549" s="4">
         <v>42894</v>
       </c>
@@ -59957,7 +59956,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="550" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A550" s="4">
         <v>42894</v>
       </c>
@@ -59989,7 +59988,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="551" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A551" s="4">
         <v>42894</v>
       </c>
@@ -60021,7 +60020,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="552" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A552" s="4">
         <v>42894</v>
       </c>
@@ -60053,7 +60052,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="553" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A553" s="4">
         <v>42894</v>
       </c>
@@ -60085,7 +60084,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="554" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A554" s="4">
         <v>42894</v>
       </c>
@@ -60117,7 +60116,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="555" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A555" s="4">
         <v>42894</v>
       </c>
@@ -60149,7 +60148,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="556" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A556" s="4">
         <v>42894</v>
       </c>
@@ -60181,7 +60180,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="557" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A557" s="4">
         <v>42894</v>
       </c>
@@ -60213,7 +60212,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="558" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A558" s="4">
         <v>42894</v>
       </c>
@@ -60245,7 +60244,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="559" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A559" s="4">
         <v>42894</v>
       </c>
@@ -60277,7 +60276,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="560" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A560" s="4">
         <v>42894</v>
       </c>
@@ -60341,7 +60340,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="562" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A562" s="4">
         <v>42894</v>
       </c>
@@ -60373,7 +60372,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="563" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A563" s="4">
         <v>42894</v>
       </c>
@@ -60405,7 +60404,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="564" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A564" s="4">
         <v>42894</v>
       </c>
@@ -60437,7 +60436,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="565" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A565" s="4">
         <v>42894</v>
       </c>
@@ -60469,7 +60468,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="566" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A566" s="4">
         <v>42894</v>
       </c>
@@ -60501,7 +60500,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="567" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A567" s="4">
         <v>42894</v>
       </c>
@@ -60533,7 +60532,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="568" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A568" s="4">
         <v>42894</v>
       </c>
@@ -60565,7 +60564,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="569" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A569" s="4">
         <v>42894</v>
       </c>
@@ -60597,7 +60596,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="570" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A570" s="4">
         <v>42894</v>
       </c>
@@ -60629,7 +60628,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="571" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A571" s="4">
         <v>42894</v>
       </c>
@@ -60661,7 +60660,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="572" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A572" s="4">
         <v>42894</v>
       </c>
@@ -60693,7 +60692,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="573" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A573" s="4">
         <v>42894</v>
       </c>
@@ -60725,7 +60724,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="574" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A574" s="4">
         <v>42894</v>
       </c>
@@ -60757,7 +60756,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="575" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A575" s="4">
         <v>42894</v>
       </c>
@@ -60789,7 +60788,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="576" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A576" s="4">
         <v>42894</v>
       </c>
@@ -60821,7 +60820,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="577" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A577" s="4">
         <v>42894</v>
       </c>
@@ -60853,7 +60852,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="578" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A578" s="4">
         <v>42894</v>
       </c>
@@ -60885,7 +60884,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="579" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A579" s="4">
         <v>42946</v>
       </c>
@@ -60917,7 +60916,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="580" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A580" s="4">
         <v>42946</v>
       </c>
@@ -60949,7 +60948,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="581" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A581" s="4">
         <v>42946</v>
       </c>
@@ -60981,7 +60980,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="582" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A582" s="4">
         <v>42946</v>
       </c>
@@ -61013,7 +61012,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="583" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A583" s="4">
         <v>42946</v>
       </c>
@@ -61045,7 +61044,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="584" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A584" s="4">
         <v>42946</v>
       </c>
@@ -61077,7 +61076,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="585" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A585" s="4">
         <v>42946</v>
       </c>
@@ -61109,7 +61108,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="586" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A586" s="4">
         <v>42946</v>
       </c>
@@ -61141,7 +61140,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="587" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A587" s="4">
         <v>42946</v>
       </c>
@@ -61173,7 +61172,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="588" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A588" s="4">
         <v>42946</v>
       </c>
@@ -61205,7 +61204,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="589" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A589" s="4">
         <v>42946</v>
       </c>
@@ -61237,7 +61236,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="590" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A590" s="4">
         <v>42946</v>
       </c>
@@ -61269,7 +61268,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="591" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A591" s="4">
         <v>42946</v>
       </c>
@@ -61301,7 +61300,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="592" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A592" s="4">
         <v>42946</v>
       </c>
@@ -61333,7 +61332,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="593" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A593" s="4">
         <v>42946</v>
       </c>
@@ -61365,7 +61364,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="594" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A594" s="4">
         <v>42946</v>
       </c>
@@ -61397,7 +61396,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="595" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A595" s="4">
         <v>42946</v>
       </c>
@@ -61429,7 +61428,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="596" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A596" s="4">
         <v>42946</v>
       </c>
@@ -61461,7 +61460,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="597" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A597" s="4">
         <v>42946</v>
       </c>
@@ -61493,7 +61492,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="598" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A598" s="4">
         <v>42946</v>
       </c>
@@ -61525,7 +61524,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="599" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A599" s="4">
         <v>42946</v>
       </c>
@@ -61557,7 +61556,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="600" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A600" s="4">
         <v>42946</v>
       </c>
@@ -61589,7 +61588,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="601" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A601" s="4">
         <v>42946</v>
       </c>
@@ -61621,7 +61620,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="602" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A602" s="4">
         <v>42946</v>
       </c>
@@ -61653,7 +61652,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="603" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A603" s="4">
         <v>42946</v>
       </c>
@@ -61685,7 +61684,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="604" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A604" s="4">
         <v>42946</v>
       </c>
@@ -61717,7 +61716,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="605" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A605" s="4">
         <v>42946</v>
       </c>
@@ -61749,7 +61748,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="606" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A606" s="4">
         <v>42946</v>
       </c>
@@ -61781,7 +61780,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="607" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A607" s="4">
         <v>42946</v>
       </c>
@@ -61813,7 +61812,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="608" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A608" s="4">
         <v>42946</v>
       </c>
@@ -61845,7 +61844,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="609" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A609" s="4">
         <v>42946</v>
       </c>
@@ -61877,7 +61876,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="610" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A610" s="4">
         <v>42946</v>
       </c>
@@ -61909,7 +61908,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="611" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A611" s="4">
         <v>42946</v>
       </c>
@@ -61941,7 +61940,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="612" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A612" s="4">
         <v>42946</v>
       </c>
@@ -62005,7 +62004,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="614" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A614" s="4">
         <v>42946</v>
       </c>
@@ -62037,7 +62036,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="615" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A615" s="4">
         <v>42946</v>
       </c>
@@ -62069,7 +62068,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="616" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A616" s="4">
         <v>42946</v>
       </c>
@@ -62101,7 +62100,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="617" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A617" s="4">
         <v>42946</v>
       </c>
@@ -62133,7 +62132,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="618" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A618" s="4">
         <v>42946</v>
       </c>
@@ -62165,7 +62164,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="619" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A619" s="4">
         <v>42946</v>
       </c>
@@ -62197,7 +62196,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="620" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A620" s="4">
         <v>42946</v>
       </c>
@@ -62229,7 +62228,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="621" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A621" s="4">
         <v>42946</v>
       </c>
@@ -62261,7 +62260,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="622" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A622" s="4">
         <v>42946</v>
       </c>
@@ -62293,7 +62292,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="623" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A623" s="4">
         <v>42946</v>
       </c>
@@ -62325,7 +62324,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="624" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A624" s="4">
         <v>42946</v>
       </c>
@@ -62357,7 +62356,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="625" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A625" s="4">
         <v>42946</v>
       </c>
@@ -62389,7 +62388,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="626" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A626" s="4">
         <v>42946</v>
       </c>
@@ -62421,7 +62420,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="627" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A627" s="4">
         <v>42946</v>
       </c>
@@ -62453,7 +62452,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="628" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A628" s="4">
         <v>42946</v>
       </c>
@@ -62485,7 +62484,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="629" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A629" s="4">
         <v>42946</v>
       </c>
@@ -62517,7 +62516,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="630" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A630" s="4">
         <v>42946</v>
       </c>
@@ -62549,7 +62548,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="631" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A631" s="4">
         <v>42946</v>
       </c>
@@ -62581,7 +62580,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="632" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A632" s="4">
         <v>42946</v>
       </c>
@@ -62613,7 +62612,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="633" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A633" s="4">
         <v>42946</v>
       </c>
@@ -62645,7 +62644,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="634" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A634" s="4">
         <v>42946</v>
       </c>
@@ -62677,7 +62676,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="635" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A635" s="4">
         <v>42946</v>
       </c>
@@ -62741,7 +62740,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="637" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A637" s="4">
         <v>42946</v>
       </c>
@@ -62773,7 +62772,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="638" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A638" s="4">
         <v>42946</v>
       </c>
@@ -62805,7 +62804,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="639" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A639" s="4">
         <v>42946</v>
       </c>
@@ -62837,7 +62836,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="640" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A640" s="4">
         <v>42946</v>
       </c>
@@ -62869,7 +62868,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="641" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A641" s="4">
         <v>42946</v>
       </c>
@@ -62901,7 +62900,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="642" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A642" s="4">
         <v>42946</v>
       </c>
@@ -62933,7 +62932,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="643" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A643" s="4">
         <v>42946</v>
       </c>
@@ -62965,7 +62964,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="644" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A644" s="4">
         <v>42946</v>
       </c>
@@ -62997,7 +62996,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="645" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A645" s="4">
         <v>42946</v>
       </c>
@@ -63029,7 +63028,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="646" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A646" s="4">
         <v>42946</v>
       </c>
@@ -63061,7 +63060,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="647" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A647" s="4">
         <v>42946</v>
       </c>
@@ -63093,7 +63092,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="648" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A648" s="4">
         <v>42946</v>
       </c>
@@ -63125,7 +63124,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="649" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A649" s="4">
         <v>42946</v>
       </c>
@@ -63189,7 +63188,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="651" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A651" s="4">
         <v>42946</v>
       </c>
@@ -63221,7 +63220,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="652" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A652" s="4">
         <v>42946</v>
       </c>
@@ -63253,7 +63252,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="653" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A653" s="4">
         <v>42946</v>
       </c>
@@ -63317,7 +63316,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="655" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A655" s="4">
         <v>42950</v>
       </c>
@@ -63349,7 +63348,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="656" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A656" s="4">
         <v>42950</v>
       </c>
@@ -63381,7 +63380,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="657" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A657" s="4">
         <v>42950</v>
       </c>
@@ -63413,7 +63412,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="658" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A658" s="4">
         <v>42950</v>
       </c>
@@ -63445,7 +63444,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="659" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A659" s="4">
         <v>42950</v>
       </c>
@@ -63477,7 +63476,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="660" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A660" s="4">
         <v>42950</v>
       </c>
@@ -63509,7 +63508,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="661" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A661" s="4">
         <v>42950</v>
       </c>
@@ -63541,7 +63540,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="662" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A662" s="4">
         <v>42950</v>
       </c>
@@ -63573,7 +63572,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="663" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A663" s="4">
         <v>42950</v>
       </c>
@@ -63605,7 +63604,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="664" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A664" s="4">
         <v>42950</v>
       </c>
@@ -63637,7 +63636,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="665" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A665" s="4">
         <v>42950</v>
       </c>
@@ -63669,7 +63668,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="666" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A666" s="4">
         <v>42950</v>
       </c>
@@ -63701,7 +63700,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="667" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A667" s="4">
         <v>42950</v>
       </c>
@@ -63733,7 +63732,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="668" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A668" s="4">
         <v>42950</v>
       </c>
@@ -63765,7 +63764,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="669" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A669" s="4">
         <v>42950</v>
       </c>
@@ -63797,7 +63796,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="670" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A670" s="4">
         <v>42950</v>
       </c>
@@ -63829,7 +63828,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="671" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A671" s="4">
         <v>42950</v>
       </c>
@@ -63893,7 +63892,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="673" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A673" s="4">
         <v>42950</v>
       </c>
@@ -63925,7 +63924,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="674" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A674" s="4">
         <v>42950</v>
       </c>
@@ -63957,7 +63956,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="675" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A675" s="4">
         <v>42950</v>
       </c>
@@ -63989,7 +63988,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="676" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A676" s="4">
         <v>42950</v>
       </c>
@@ -64021,7 +64020,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="677" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A677" s="4">
         <v>42950</v>
       </c>
@@ -64053,7 +64052,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="678" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A678" s="4">
         <v>42950</v>
       </c>
@@ -64085,7 +64084,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="679" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A679" s="4">
         <v>42950</v>
       </c>
@@ -64117,7 +64116,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="680" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A680" s="4">
         <v>42950</v>
       </c>
@@ -64149,7 +64148,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="681" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A681" s="4">
         <v>42950</v>
       </c>
@@ -64181,7 +64180,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="682" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A682" s="4">
         <v>42950</v>
       </c>
@@ -64213,7 +64212,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="683" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A683" s="4">
         <v>42950</v>
       </c>
@@ -64245,7 +64244,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="684" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A684" s="4">
         <v>42950</v>
       </c>
@@ -64277,7 +64276,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="685" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A685" s="4">
         <v>42950</v>
       </c>
@@ -64309,7 +64308,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="686" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A686" s="4">
         <v>42950</v>
       </c>
@@ -64341,7 +64340,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="687" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A687" s="4">
         <v>42950</v>
       </c>
@@ -64373,7 +64372,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="688" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A688" s="4">
         <v>42950</v>
       </c>
@@ -64405,7 +64404,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="689" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A689" s="4">
         <v>42950</v>
       </c>
@@ -64469,7 +64468,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="691" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A691" s="4">
         <v>42950</v>
       </c>
@@ -64501,7 +64500,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="692" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A692" s="4">
         <v>42950</v>
       </c>
@@ -64533,7 +64532,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="693" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A693" s="4">
         <v>42950</v>
       </c>
@@ -64565,7 +64564,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="694" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A694" s="4">
         <v>42950</v>
       </c>
@@ -64597,7 +64596,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="695" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A695" s="4">
         <v>42950</v>
       </c>
@@ -64629,7 +64628,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="696" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A696" s="4">
         <v>42950</v>
       </c>
@@ -64661,7 +64660,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="697" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A697" s="4">
         <v>42950</v>
       </c>
@@ -64693,7 +64692,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="698" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A698" s="4">
         <v>42950</v>
       </c>
@@ -64725,7 +64724,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="699" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A699" s="4">
         <v>42950</v>
       </c>
@@ -64757,7 +64756,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="700" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A700" s="4">
         <v>42950</v>
       </c>
@@ -64789,7 +64788,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="701" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A701" s="4">
         <v>42950</v>
       </c>
@@ -64821,7 +64820,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="702" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A702" s="4">
         <v>42950</v>
       </c>
@@ -64853,7 +64852,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="703" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A703" s="4">
         <v>42950</v>
       </c>
@@ -64885,7 +64884,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="704" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A704" s="4">
         <v>42950</v>
       </c>
@@ -64949,7 +64948,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="706" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A706" s="4">
         <v>42950</v>
       </c>
@@ -64981,7 +64980,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="707" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A707" s="4">
         <v>42950</v>
       </c>
@@ -65013,7 +65012,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="708" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A708" s="4">
         <v>42950</v>
       </c>
@@ -65045,7 +65044,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="709" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A709" s="4">
         <v>42950</v>
       </c>
@@ -65077,7 +65076,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="710" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A710" s="4">
         <v>42950</v>
       </c>
@@ -65109,7 +65108,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="711" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A711" s="4">
         <v>42950</v>
       </c>
@@ -65141,7 +65140,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="712" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A712" s="4">
         <v>42950</v>
       </c>
@@ -65173,7 +65172,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="713" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A713" s="4">
         <v>42950</v>
       </c>
@@ -65205,7 +65204,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="714" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A714" s="4">
         <v>42950</v>
       </c>
@@ -65237,7 +65236,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="715" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A715" s="4">
         <v>42950</v>
       </c>
@@ -65269,7 +65268,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="716" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A716" s="4">
         <v>42950</v>
       </c>
@@ -65301,7 +65300,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="717" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A717" s="4">
         <v>42950</v>
       </c>
@@ -65333,7 +65332,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="718" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A718" s="4">
         <v>42950</v>
       </c>
@@ -65397,7 +65396,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="720" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A720" s="4">
         <v>42950</v>
       </c>
@@ -65429,7 +65428,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="721" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A721" s="4">
         <v>42950</v>
       </c>
@@ -65461,7 +65460,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="722" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A722" s="4">
         <v>42950</v>
       </c>
@@ -65493,7 +65492,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="723" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A723" s="4">
         <v>42950</v>
       </c>
@@ -65525,7 +65524,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="724" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A724" s="4">
         <v>42950</v>
       </c>
@@ -65557,7 +65556,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="725" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A725" s="4">
         <v>42950</v>
       </c>
@@ -65589,7 +65588,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="726" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A726" s="4">
         <v>42950</v>
       </c>
@@ -65621,7 +65620,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="727" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A727" s="4">
         <v>42950</v>
       </c>
@@ -65653,7 +65652,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="728" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A728" s="4">
         <v>42950</v>
       </c>
@@ -65685,7 +65684,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="729" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A729" s="4">
         <v>42950</v>
       </c>
@@ -65717,7 +65716,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="730" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A730" s="4">
         <v>42950</v>
       </c>
@@ -65749,7 +65748,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="731" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A731" s="4">
         <v>42950</v>
       </c>
@@ -65781,7 +65780,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="732" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A732" s="4">
         <v>42950</v>
       </c>
@@ -65813,7 +65812,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="733" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A733" s="4">
         <v>42950</v>
       </c>
@@ -65845,7 +65844,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="734" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A734" s="4">
         <v>42950</v>
       </c>
@@ -65877,7 +65876,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="735" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A735" s="4">
         <v>42950</v>
       </c>
@@ -65909,7 +65908,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="736" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A736" s="4">
         <v>42950</v>
       </c>
@@ -65941,7 +65940,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="737" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A737" s="4">
         <v>42950</v>
       </c>
@@ -65973,7 +65972,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="738" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A738" s="4">
         <v>42950</v>
       </c>
@@ -66005,7 +66004,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="739" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A739" s="1">
         <v>42954</v>
       </c>
@@ -66037,7 +66036,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="740" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A740" s="1">
         <v>42954</v>
       </c>
@@ -66069,7 +66068,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="741" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A741" s="1">
         <v>42954</v>
       </c>
@@ -66101,7 +66100,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="742" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A742" s="1">
         <v>42954</v>
       </c>
@@ -66133,7 +66132,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="743" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A743" s="1">
         <v>42954</v>
       </c>
@@ -66197,7 +66196,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="745" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A745" s="1">
         <v>42954</v>
       </c>
@@ -66229,7 +66228,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="746" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A746" s="1">
         <v>42954</v>
       </c>
@@ -66261,7 +66260,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="747" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A747" s="1">
         <v>42954</v>
       </c>
@@ -66293,7 +66292,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="748" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A748" s="1">
         <v>42954</v>
       </c>
@@ -66325,7 +66324,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="749" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A749" s="1">
         <v>42954</v>
       </c>
@@ -66357,7 +66356,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="750" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A750" s="1">
         <v>42954</v>
       </c>
@@ -66389,7 +66388,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="751" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A751" s="1">
         <v>42954</v>
       </c>
@@ -66421,7 +66420,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="752" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A752" s="1">
         <v>42954</v>
       </c>
@@ -66453,7 +66452,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="753" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A753" s="1">
         <v>42954</v>
       </c>
@@ -66517,7 +66516,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="755" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A755" s="1">
         <v>42954</v>
       </c>
@@ -66549,7 +66548,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="756" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A756" s="1">
         <v>42954</v>
       </c>
@@ -66581,7 +66580,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="757" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A757" s="1">
         <v>42954</v>
       </c>
@@ -66613,7 +66612,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="758" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A758" s="1">
         <v>42954</v>
       </c>
@@ -66645,7 +66644,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="759" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A759" s="1">
         <v>42954</v>
       </c>
@@ -66677,7 +66676,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="760" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A760" s="1">
         <v>42954</v>
       </c>
@@ -66709,7 +66708,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="761" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A761" s="1">
         <v>42954</v>
       </c>
@@ -66741,7 +66740,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="762" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A762" s="1">
         <v>42954</v>
       </c>
@@ -66773,7 +66772,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="763" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A763" s="1">
         <v>42954</v>
       </c>
@@ -66805,7 +66804,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="764" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A764" s="1">
         <v>42954</v>
       </c>
@@ -66837,7 +66836,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="765" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A765" s="1">
         <v>42954</v>
       </c>
@@ -66869,7 +66868,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="766" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A766" s="1">
         <v>42954</v>
       </c>
@@ -66901,7 +66900,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="767" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A767" s="1">
         <v>42954</v>
       </c>
@@ -66933,7 +66932,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="768" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A768" s="1">
         <v>42954</v>
       </c>
@@ -66965,7 +66964,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="769" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A769" s="1">
         <v>42954</v>
       </c>
@@ -66997,7 +66996,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="770" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A770" s="1">
         <v>42954</v>
       </c>
@@ -67029,7 +67028,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="771" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A771" s="1">
         <v>42954</v>
       </c>
@@ -67093,7 +67092,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="773" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A773" s="1">
         <v>42954</v>
       </c>
@@ -67125,7 +67124,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="774" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A774" s="1">
         <v>42954</v>
       </c>
@@ -67157,7 +67156,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="775" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A775" s="1">
         <v>42954</v>
       </c>
@@ -67189,7 +67188,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="776" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A776" s="1">
         <v>42954</v>
       </c>
@@ -67221,7 +67220,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="777" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A777" s="1">
         <v>42954</v>
       </c>
@@ -67253,7 +67252,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="778" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A778" s="1">
         <v>42954</v>
       </c>
@@ -67285,7 +67284,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="779" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A779" s="1">
         <v>42954</v>
       </c>
@@ -67317,7 +67316,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="780" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A780" s="1">
         <v>42954</v>
       </c>
@@ -67381,7 +67380,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="782" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A782" s="1">
         <v>42954</v>
       </c>
@@ -67413,7 +67412,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="783" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A783" s="1">
         <v>42954</v>
       </c>
@@ -67445,7 +67444,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="784" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A784" s="1">
         <v>42954</v>
       </c>
@@ -67477,7 +67476,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="785" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A785" s="1">
         <v>42954</v>
       </c>
@@ -67509,7 +67508,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="786" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A786" s="1">
         <v>42954</v>
       </c>
@@ -67541,7 +67540,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="787" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A787" s="1">
         <v>42954</v>
       </c>
@@ -67573,7 +67572,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="788" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A788" s="1">
         <v>42954</v>
       </c>
@@ -67605,7 +67604,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="789" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A789" s="1">
         <v>42954</v>
       </c>
@@ -67669,7 +67668,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="791" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A791" s="1">
         <v>42954</v>
       </c>
@@ -67701,7 +67700,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="792" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A792" s="1">
         <v>42954</v>
       </c>
@@ -67733,7 +67732,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="793" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A793" s="1">
         <v>42954</v>
       </c>
@@ -67765,7 +67764,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="794" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A794" s="1">
         <v>42954</v>
       </c>
@@ -67797,7 +67796,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="795" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A795" s="1">
         <v>42954</v>
       </c>
@@ -67829,7 +67828,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="796" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A796" s="1">
         <v>42954</v>
       </c>
@@ -67861,7 +67860,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="797" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A797" s="1">
         <v>42954</v>
       </c>
@@ -67893,7 +67892,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="798" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A798" s="1">
         <v>42954</v>
       </c>
@@ -67925,7 +67924,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="799" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A799" s="1">
         <v>42954</v>
       </c>
@@ -67957,7 +67956,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="800" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A800" s="1">
         <v>42954</v>
       </c>
@@ -67989,7 +67988,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="801" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A801" s="1">
         <v>42954</v>
       </c>
@@ -68021,7 +68020,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="802" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A802" s="1">
         <v>42946</v>
       </c>
@@ -68053,7 +68052,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="803" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A803" s="1">
         <v>42946</v>
       </c>
@@ -68085,7 +68084,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="804" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A804" s="1">
         <v>42946</v>
       </c>
@@ -68117,7 +68116,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="805" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A805" s="1">
         <v>42946</v>
       </c>
@@ -68149,7 +68148,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="806" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A806" s="1">
         <v>42946</v>
       </c>
@@ -68181,7 +68180,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="807" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A807" s="1">
         <v>42946</v>
       </c>
@@ -68213,7 +68212,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="808" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A808" s="1">
         <v>42946</v>
       </c>
@@ -68245,7 +68244,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="809" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A809" s="1">
         <v>42946</v>
       </c>
@@ -68309,7 +68308,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="811" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A811" s="1">
         <v>42946</v>
       </c>
@@ -68341,7 +68340,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="812" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A812" s="1">
         <v>42946</v>
       </c>
@@ -68373,7 +68372,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="813" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A813" s="1">
         <v>42946</v>
       </c>
@@ -68405,7 +68404,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="814" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A814" s="1">
         <v>42946</v>
       </c>
@@ -68437,7 +68436,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="815" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A815" s="1">
         <v>42946</v>
       </c>
@@ -68469,7 +68468,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="816" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A816" s="1">
         <v>42946</v>
       </c>
@@ -68501,7 +68500,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="817" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A817" s="1">
         <v>42946</v>
       </c>
@@ -68533,7 +68532,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="818" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A818" s="1">
         <v>42946</v>
       </c>
@@ -68565,7 +68564,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="819" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A819" s="1">
         <v>42946</v>
       </c>
@@ -68597,7 +68596,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="820" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A820" s="1">
         <v>42946</v>
       </c>
@@ -68661,7 +68660,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="822" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A822" s="1">
         <v>42946</v>
       </c>
@@ -68693,7 +68692,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="823" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A823" s="1">
         <v>42946</v>
       </c>
@@ -68725,7 +68724,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="824" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A824" s="1">
         <v>42946</v>
       </c>
@@ -68757,7 +68756,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="825" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A825" s="1">
         <v>42946</v>
       </c>
@@ -68789,7 +68788,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="826" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A826" s="1">
         <v>42946</v>
       </c>
@@ -68821,7 +68820,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="827" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A827" s="1">
         <v>42946</v>
       </c>
@@ -68853,7 +68852,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="828" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A828" s="1">
         <v>42946</v>
       </c>
@@ -68885,7 +68884,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="829" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A829" s="1">
         <v>42946</v>
       </c>
@@ -68917,7 +68916,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="830" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A830" s="1">
         <v>42946</v>
       </c>
@@ -68949,7 +68948,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="831" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A831" s="1">
         <v>42946</v>
       </c>
@@ -68981,7 +68980,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="832" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A832" s="1">
         <v>42946</v>
       </c>
@@ -69013,7 +69012,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="833" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A833" s="1">
         <v>42946</v>
       </c>
@@ -69045,7 +69044,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="834" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A834" s="1">
         <v>42946</v>
       </c>
@@ -69077,7 +69076,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="835" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A835" s="1">
         <v>42946</v>
       </c>
@@ -69109,7 +69108,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="836" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A836" s="1">
         <v>42946</v>
       </c>
@@ -69141,7 +69140,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="837" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A837" s="1">
         <v>42946</v>
       </c>
@@ -69173,7 +69172,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="838" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A838" s="1">
         <v>42946</v>
       </c>
@@ -69205,7 +69204,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="839" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A839" s="1">
         <v>42946</v>
       </c>
@@ -69237,7 +69236,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="840" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A840" s="1">
         <v>42946</v>
       </c>
@@ -69269,7 +69268,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="841" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A841" s="1">
         <v>42946</v>
       </c>
@@ -69301,7 +69300,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="842" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A842" s="1">
         <v>42946</v>
       </c>
@@ -69333,7 +69332,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="843" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A843" s="1">
         <v>42946</v>
       </c>
@@ -69365,7 +69364,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="844" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A844" s="1">
         <v>42946</v>
       </c>
@@ -69397,7 +69396,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="845" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A845" s="1">
         <v>42946</v>
       </c>
@@ -69429,7 +69428,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="846" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A846" s="1">
         <v>42946</v>
       </c>
@@ -69461,7 +69460,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="847" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A847" s="1">
         <v>42946</v>
       </c>
@@ -69493,7 +69492,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="848" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A848" s="1">
         <v>42946</v>
       </c>
@@ -69525,7 +69524,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="849" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A849" s="1">
         <v>42946</v>
       </c>
@@ -69557,7 +69556,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="850" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A850" s="1">
         <v>42946</v>
       </c>
@@ -69589,7 +69588,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="851" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A851" s="1">
         <v>43009</v>
       </c>
@@ -69621,7 +69620,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="852" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A852" s="1">
         <v>43009</v>
       </c>
@@ -69653,7 +69652,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="853" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A853" s="1">
         <v>43009</v>
       </c>
@@ -69685,7 +69684,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="854" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A854" s="1">
         <v>43009</v>
       </c>
@@ -69717,7 +69716,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="855" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A855" s="1">
         <v>43009</v>
       </c>
@@ -69749,7 +69748,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="856" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A856" s="1">
         <v>43009</v>
       </c>
@@ -69781,7 +69780,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="857" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A857" s="1">
         <v>43009</v>
       </c>
@@ -69813,7 +69812,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="858" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A858" s="1">
         <v>43009</v>
       </c>
@@ -69845,7 +69844,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="859" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A859" s="1">
         <v>43009</v>
       </c>
@@ -69877,7 +69876,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="860" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A860" s="1">
         <v>43009</v>
       </c>
@@ -69909,7 +69908,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="861" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A861" s="1">
         <v>43009</v>
       </c>
@@ -69941,7 +69940,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="862" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A862" s="1">
         <v>43009</v>
       </c>
@@ -69973,7 +69972,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="863" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A863" s="1">
         <v>43009</v>
       </c>
@@ -70005,7 +70004,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="864" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A864" s="1">
         <v>43009</v>
       </c>
@@ -70037,7 +70036,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="865" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A865" s="1">
         <v>43009</v>
       </c>
@@ -70069,7 +70068,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="866" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A866" s="1">
         <v>43009</v>
       </c>
@@ -70101,7 +70100,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="867" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A867" s="1">
         <v>43009</v>
       </c>
@@ -70133,7 +70132,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="868" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A868" s="1">
         <v>43009</v>
       </c>
@@ -70165,7 +70164,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="869" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A869" s="1">
         <v>43009</v>
       </c>
@@ -70197,7 +70196,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="870" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A870" s="1">
         <v>43009</v>
       </c>
@@ -70229,7 +70228,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="871" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A871" s="1">
         <v>43009</v>
       </c>
@@ -70261,7 +70260,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="872" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A872" s="1">
         <v>43009</v>
       </c>
@@ -70293,7 +70292,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="873" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A873" s="1">
         <v>43009</v>
       </c>
@@ -70325,7 +70324,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="874" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A874" s="1">
         <v>43009</v>
       </c>
@@ -70357,7 +70356,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="875" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A875" s="1">
         <v>43009</v>
       </c>
@@ -70389,7 +70388,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="876" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A876" s="1">
         <v>43009</v>
       </c>
@@ -70421,7 +70420,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="877" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A877" s="1">
         <v>43009</v>
       </c>
@@ -70453,7 +70452,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="878" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A878" s="1">
         <v>43009</v>
       </c>
@@ -70485,7 +70484,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="879" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A879" s="1">
         <v>43009</v>
       </c>
@@ -70517,7 +70516,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="880" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A880" s="1">
         <v>43009</v>
       </c>
@@ -70549,7 +70548,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="881" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A881" s="1">
         <v>43009</v>
       </c>
@@ -70613,7 +70612,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="883" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A883" s="1">
         <v>43009</v>
       </c>
@@ -70645,7 +70644,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="884" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A884" s="1">
         <v>43009</v>
       </c>
@@ -70677,7 +70676,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="885" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A885" s="1">
         <v>43009</v>
       </c>
@@ -70709,7 +70708,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="886" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A886" s="1">
         <v>43009</v>
       </c>
@@ -70741,7 +70740,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="887" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A887" s="1">
         <v>43009</v>
       </c>
@@ -70773,7 +70772,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="888" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A888" s="1">
         <v>43009</v>
       </c>
@@ -70805,7 +70804,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="889" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A889" s="1">
         <v>43009</v>
       </c>
@@ -70837,7 +70836,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="890" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A890" s="1">
         <v>43009</v>
       </c>
@@ -70869,7 +70868,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="891" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A891" s="1">
         <v>43009</v>
       </c>
@@ -70901,7 +70900,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="892" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A892" s="1">
         <v>43009</v>
       </c>
@@ -70933,7 +70932,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="893" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A893" s="1">
         <v>43009</v>
       </c>
@@ -70965,7 +70964,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="894" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A894" s="1">
         <v>43009</v>
       </c>
@@ -70997,7 +70996,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="895" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A895" s="1">
         <v>43009</v>
       </c>
@@ -71029,7 +71028,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="896" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A896" s="1">
         <v>43009</v>
       </c>
@@ -71061,7 +71060,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="897" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A897" s="1">
         <v>43009</v>
       </c>
@@ -71093,7 +71092,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="898" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A898" s="1">
         <v>43009</v>
       </c>
@@ -71125,7 +71124,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="899" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A899" s="1">
         <v>43009</v>
       </c>
@@ -71157,7 +71156,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="900" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A900" s="1">
         <v>43009</v>
       </c>
@@ -71189,7 +71188,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="901" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A901" s="1">
         <v>43009</v>
       </c>
@@ -71221,7 +71220,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="902" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A902" s="1">
         <v>43009</v>
       </c>
@@ -71253,7 +71252,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="903" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A903" s="1">
         <v>43009</v>
       </c>
@@ -71285,7 +71284,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="904" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A904" s="1">
         <v>43009</v>
       </c>
@@ -71317,7 +71316,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="905" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A905" s="1">
         <v>43009</v>
       </c>
@@ -71349,7 +71348,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="906" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A906" s="1">
         <v>43009</v>
       </c>
@@ -71381,7 +71380,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="907" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A907" s="1">
         <v>43009</v>
       </c>
@@ -71413,7 +71412,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="908" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A908" s="1">
         <v>43009</v>
       </c>
@@ -71445,7 +71444,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="909" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A909" s="1">
         <v>43009</v>
       </c>
@@ -71477,7 +71476,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="910" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A910" s="1">
         <v>43009</v>
       </c>
@@ -71541,7 +71540,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="912" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A912" s="4">
         <v>43009</v>
       </c>
@@ -71573,7 +71572,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="913" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A913" s="4">
         <v>43009</v>
       </c>
@@ -71637,7 +71636,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="915" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A915" s="4">
         <v>43009</v>
       </c>
@@ -71669,7 +71668,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="916" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A916" s="4">
         <v>43009</v>
       </c>
@@ -71701,7 +71700,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="917" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A917" s="4">
         <v>43009</v>
       </c>
@@ -71733,7 +71732,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="918" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A918" s="4">
         <v>43009</v>
       </c>
@@ -71765,7 +71764,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="919" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A919" s="4">
         <v>43009</v>
       </c>
@@ -71797,7 +71796,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="920" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A920" s="4">
         <v>43009</v>
       </c>
@@ -71829,7 +71828,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="921" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A921" s="4">
         <v>43009</v>
       </c>
@@ -71861,7 +71860,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="922" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A922" s="4">
         <v>43009</v>
       </c>
@@ -71925,7 +71924,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="924" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A924" s="4">
         <v>43009</v>
       </c>
@@ -71957,7 +71956,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="925" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A925" s="4">
         <v>43009</v>
       </c>
@@ -71989,7 +71988,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="926" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A926" s="4">
         <v>43009</v>
       </c>
@@ -72021,7 +72020,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="927" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A927" s="4">
         <v>43009</v>
       </c>
@@ -72053,7 +72052,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="928" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A928" s="4">
         <v>43009</v>
       </c>
@@ -72085,7 +72084,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="929" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A929" s="4">
         <v>43009</v>
       </c>
@@ -72117,7 +72116,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="930" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A930" s="4">
         <v>43009</v>
       </c>
@@ -72149,7 +72148,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="931" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A931" s="4">
         <v>43009</v>
       </c>
@@ -72181,7 +72180,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="932" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A932" s="4">
         <v>43009</v>
       </c>
@@ -72213,7 +72212,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="933" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A933" s="4">
         <v>43009</v>
       </c>
@@ -72245,7 +72244,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="934" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A934" s="4">
         <v>43009</v>
       </c>
@@ -72277,7 +72276,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="935" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A935" s="4">
         <v>43009</v>
       </c>
@@ -72309,7 +72308,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="936" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A936" s="4">
         <v>43009</v>
       </c>
@@ -72341,7 +72340,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="937" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A937" s="4">
         <v>43009</v>
       </c>
@@ -72373,7 +72372,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="938" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A938" s="4">
         <v>43009</v>
       </c>
@@ -72437,7 +72436,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="940" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A940" s="4">
         <v>43009</v>
       </c>
@@ -72469,7 +72468,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="941" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A941" s="4">
         <v>43009</v>
       </c>
@@ -72501,7 +72500,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="942" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A942" s="4">
         <v>43009</v>
       </c>
@@ -72533,7 +72532,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="943" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A943" s="4">
         <v>43009</v>
       </c>
@@ -72565,7 +72564,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="944" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A944" s="4">
         <v>43009</v>
       </c>
@@ -72597,7 +72596,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="945" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A945" s="4">
         <v>43009</v>
       </c>
@@ -72629,7 +72628,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="946" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A946" s="4">
         <v>43009</v>
       </c>
@@ -72661,7 +72660,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="947" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A947" s="4">
         <v>43009</v>
       </c>
@@ -72693,7 +72692,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="948" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A948" s="4">
         <v>43009</v>
       </c>
@@ -72725,7 +72724,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="949" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A949" s="4">
         <v>43009</v>
       </c>
@@ -72757,7 +72756,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="950" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A950" s="4">
         <v>43009</v>
       </c>
@@ -72789,7 +72788,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="951" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A951" s="4">
         <v>43009</v>
       </c>
@@ -72821,7 +72820,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="952" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A952" s="4">
         <v>43009</v>
       </c>
@@ -72853,7 +72852,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="953" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A953" s="4">
         <v>43009</v>
       </c>
@@ -72885,7 +72884,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="954" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A954" s="4">
         <v>43009</v>
       </c>
@@ -72917,7 +72916,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="955" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A955" s="4">
         <v>43009</v>
       </c>
@@ -72981,7 +72980,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="957" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A957" s="4">
         <v>43009</v>
       </c>
@@ -73013,7 +73012,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="958" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A958" s="4">
         <v>43009</v>
       </c>
@@ -73045,7 +73044,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="959" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A959" s="4">
         <v>43009</v>
       </c>
@@ -73077,7 +73076,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="960" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A960" s="4">
         <v>43009</v>
       </c>
@@ -73109,7 +73108,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="961" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A961" s="4">
         <v>43009</v>
       </c>
@@ -73141,7 +73140,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="962" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A962" s="4">
         <v>43009</v>
       </c>
@@ -73173,7 +73172,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="963" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A963" s="4">
         <v>43009</v>
       </c>
@@ -73205,7 +73204,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="964" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A964" s="4">
         <v>43009</v>
       </c>
@@ -73269,7 +73268,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="966" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A966" s="4">
         <v>43009</v>
       </c>
@@ -73301,7 +73300,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="967" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A967" s="4">
         <v>43009</v>
       </c>
@@ -73333,7 +73332,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="968" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A968" s="4">
         <v>43009</v>
       </c>
@@ -73365,7 +73364,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="969" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A969" s="4">
         <v>43009</v>
       </c>
@@ -73397,7 +73396,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="970" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A970" s="4">
         <v>43009</v>
       </c>
@@ -73429,7 +73428,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="971" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A971" s="4">
         <v>43009</v>
       </c>
@@ -73461,7 +73460,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="972" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A972" s="4">
         <v>43009</v>
       </c>
@@ -73493,7 +73492,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="973" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A973" s="4">
         <v>43009</v>
       </c>
@@ -73525,7 +73524,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="974" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A974" s="4">
         <v>43009</v>
       </c>
@@ -73557,7 +73556,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="975" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A975" s="4">
         <v>43009</v>
       </c>
@@ -73590,13 +73589,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J975">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Acari"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J975"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
